--- a/insitu/30mv/insitu-30mv-Layer2-Test3.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer2-Test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985D324-BAB9-2846-A408-5DB673596A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518586A9-FC31-3441-A419-7E4820DEB984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,288 +191,348 @@
             <c:v>频率</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F6F1-1B48-B061-A3630CD6F969}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$7:$G$94</c:f>
+              <c:f>Sheet1!$G$3:$G$115</c:f>
               <c:strCache>
-                <c:ptCount val="88"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
+                  <c:v>0.50863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54063</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54463</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54863</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55263</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55463</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56063</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56263</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56463</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56663</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.56863</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
                   <c:v>0.57063</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>0.57263</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0.57463</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="34">
                   <c:v>0.57663</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="35">
                   <c:v>0.57863</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="36">
                   <c:v>0.58063</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="37">
                   <c:v>0.58263</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="38">
                   <c:v>0.58463</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="39">
                   <c:v>0.58663</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="40">
                   <c:v>0.58863</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="41">
                   <c:v>0.59063</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="42">
                   <c:v>0.59263</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="43">
                   <c:v>0.59463</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="44">
                   <c:v>0.59663</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="45">
                   <c:v>0.59863</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="46">
                   <c:v>0.60063</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="47">
                   <c:v>0.60263</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="48">
                   <c:v>0.60463</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="49">
                   <c:v>0.60663</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="50">
                   <c:v>0.60863</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="51">
                   <c:v>0.61063</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="52">
                   <c:v>0.61263</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="53">
                   <c:v>0.61463</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="54">
                   <c:v>0.61663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="55">
                   <c:v>0.61863</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="56">
                   <c:v>0.62063</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="57">
                   <c:v>0.62263</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="58">
                   <c:v>0.62463</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="59">
                   <c:v>0.62663</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="60">
                   <c:v>0.62863</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="61">
                   <c:v>0.63063</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="62">
                   <c:v>0.63263</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="63">
                   <c:v>0.63463</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="64">
                   <c:v>0.63663</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="65">
                   <c:v>0.63863</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="66">
                   <c:v>0.64063</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="67">
                   <c:v>0.64263</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="68">
                   <c:v>0.64463</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="69">
                   <c:v>0.64663</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="70">
                   <c:v>0.64863</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="71">
                   <c:v>0.65063</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="72">
                   <c:v>0.65263</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="73">
                   <c:v>0.65463</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="74">
                   <c:v>0.65663</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="75">
                   <c:v>0.65863</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="76">
                   <c:v>0.66063</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="77">
                   <c:v>0.66263</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="78">
                   <c:v>0.66463</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="79">
                   <c:v>0.66663</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="80">
                   <c:v>0.66863</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="81">
                   <c:v>0.67063</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="82">
                   <c:v>0.67263</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="83">
                   <c:v>0.67463</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="84">
                   <c:v>0.67663</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="85">
                   <c:v>0.67863</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="86">
                   <c:v>0.68063</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="87">
                   <c:v>0.68263</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="88">
                   <c:v>0.68463</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="89">
                   <c:v>0.68663</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="90">
                   <c:v>0.68863</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="91">
                   <c:v>0.69063</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="92">
                   <c:v>0.69263</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="93">
                   <c:v>0.69463</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="94">
                   <c:v>0.69663</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="95">
                   <c:v>0.69863</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="96">
                   <c:v>0.70063</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="97">
                   <c:v>0.70263</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="98">
                   <c:v>0.70463</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="99">
                   <c:v>0.70663</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="100">
                   <c:v>0.70863</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="101">
                   <c:v>0.71063</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="102">
                   <c:v>0.71263</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="103">
                   <c:v>0.71463</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="104">
                   <c:v>0.71663</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="105">
                   <c:v>0.71863</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="106">
                   <c:v>0.72063</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="107">
                   <c:v>0.72263</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="108">
                   <c:v>0.72463</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="109">
                   <c:v>0.72663</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="110">
                   <c:v>0.72863</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="111">
                   <c:v>0.73063</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.73263</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.73463</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.73663</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.73863</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.74063</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="112">
                   <c:v>其他</c:v>
                 </c:pt>
               </c:strCache>
@@ -480,90 +540,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$94</c:f>
+              <c:f>Sheet1!$H$3:$H$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
@@ -572,180 +632,255 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="105">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="106">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="107">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -753,7 +888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6F1-1B48-B061-A3630CD6F969}"/>
+              <c16:uniqueId val="{00000001-6455-2A45-BDF5-A5618FDB627A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,11 +901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="850498160"/>
-        <c:axId val="851251808"/>
+        <c:axId val="1796531455"/>
+        <c:axId val="1800616335"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="850498160"/>
+        <c:axId val="1796531455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="851251808"/>
+        <c:crossAx val="1800616335"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="851251808"/>
+        <c:axId val="1800616335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="850498160"/>
+        <c:crossAx val="1796531455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -868,21 +1003,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34679B0-1EFE-7143-9417-3E98458B3BD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBFD76F-05C3-8D4C-A3B4-246499C71EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,13 +1325,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O75" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1341,13 @@
         <v>0.55476999999999999</v>
       </c>
       <c r="D2">
-        <v>0.56862999999999997</v>
+        <v>0.50863000000000003</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1214,7 +1355,13 @@
         <v>0.55664999999999998</v>
       </c>
       <c r="D3">
-        <v>0.57062999999999997</v>
+        <v>0.51063000000000003</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.50863000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1222,15 +1369,27 @@
         <v>0.54840999999999995</v>
       </c>
       <c r="D4">
-        <v>0.57262999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+        <v>0.51263000000000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.51063000000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.56128999999999996</v>
       </c>
       <c r="D5">
-        <v>0.57462999999999997</v>
+        <v>0.51463000000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.51263000000000003</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1238,13 +1397,13 @@
         <v>0.54273000000000005</v>
       </c>
       <c r="D6">
-        <v>0.57662999999999998</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>0.51663000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.51463000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1252,13 +1411,13 @@
         <v>0.56598000000000004</v>
       </c>
       <c r="D7">
-        <v>0.57862999999999998</v>
+        <v>0.51863000000000004</v>
       </c>
       <c r="G7" s="3">
-        <v>0.56862999999999997</v>
+        <v>0.51663000000000003</v>
       </c>
       <c r="H7" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1266,13 +1425,13 @@
         <v>0.56894999999999996</v>
       </c>
       <c r="D8">
-        <v>0.58062999999999998</v>
+        <v>0.52063000000000004</v>
       </c>
       <c r="G8" s="3">
-        <v>0.57062999999999997</v>
+        <v>0.51863000000000004</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1280,10 +1439,10 @@
         <v>0.55069000000000001</v>
       </c>
       <c r="D9">
-        <v>0.58262999999999998</v>
+        <v>0.52263000000000004</v>
       </c>
       <c r="G9" s="3">
-        <v>0.57262999999999997</v>
+        <v>0.52063000000000004</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -1294,10 +1453,10 @@
         <v>0.55156000000000005</v>
       </c>
       <c r="D10">
-        <v>0.58462999999999998</v>
+        <v>0.52463000000000004</v>
       </c>
       <c r="G10" s="3">
-        <v>0.57462999999999997</v>
+        <v>0.52263000000000004</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1308,10 +1467,10 @@
         <v>0.56381000000000003</v>
       </c>
       <c r="D11">
-        <v>0.58662999999999998</v>
+        <v>0.52663000000000004</v>
       </c>
       <c r="G11" s="3">
-        <v>0.57662999999999998</v>
+        <v>0.52463000000000004</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -1322,10 +1481,10 @@
         <v>0.55237000000000003</v>
       </c>
       <c r="D12">
-        <v>0.58862999999999999</v>
+        <v>0.52863000000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>0.57862999999999998</v>
+        <v>0.52663000000000004</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -1336,10 +1495,10 @@
         <v>0.56320999999999999</v>
       </c>
       <c r="D13">
-        <v>0.59062999999999999</v>
+        <v>0.53063000000000005</v>
       </c>
       <c r="G13" s="3">
-        <v>0.58062999999999998</v>
+        <v>0.52863000000000004</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -1350,10 +1509,10 @@
         <v>0.55715999999999999</v>
       </c>
       <c r="D14">
-        <v>0.59262999999999999</v>
+        <v>0.53263000000000005</v>
       </c>
       <c r="G14" s="3">
-        <v>0.58262999999999998</v>
+        <v>0.53063000000000005</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1364,13 +1523,13 @@
         <v>0.55237999999999998</v>
       </c>
       <c r="D15">
-        <v>0.59462999999999999</v>
+        <v>0.53463000000000005</v>
       </c>
       <c r="G15" s="3">
-        <v>0.58462999999999998</v>
+        <v>0.53263000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1378,10 +1537,10 @@
         <v>0.54823</v>
       </c>
       <c r="D16">
-        <v>0.59662999999999999</v>
+        <v>0.53663000000000005</v>
       </c>
       <c r="G16" s="3">
-        <v>0.58662999999999998</v>
+        <v>0.53463000000000005</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -1392,10 +1551,10 @@
         <v>0.55208000000000002</v>
       </c>
       <c r="D17">
-        <v>0.59863</v>
+        <v>0.53863000000000005</v>
       </c>
       <c r="G17" s="3">
-        <v>0.58862999999999999</v>
+        <v>0.53663000000000005</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1406,10 +1565,10 @@
         <v>0.54303000000000001</v>
       </c>
       <c r="D18">
-        <v>0.60063</v>
+        <v>0.54063000000000005</v>
       </c>
       <c r="G18" s="3">
-        <v>0.59062999999999999</v>
+        <v>0.53863000000000005</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -1420,13 +1579,13 @@
         <v>0.55196999999999996</v>
       </c>
       <c r="D19">
-        <v>0.60263</v>
+        <v>0.54262999999999995</v>
       </c>
       <c r="G19" s="3">
-        <v>0.59262999999999999</v>
+        <v>0.54063000000000005</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1434,10 +1593,10 @@
         <v>0.55401</v>
       </c>
       <c r="D20">
-        <v>0.60463</v>
+        <v>0.54462999999999995</v>
       </c>
       <c r="G20" s="3">
-        <v>0.59462999999999999</v>
+        <v>0.54262999999999995</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -1448,13 +1607,13 @@
         <v>0.57037000000000004</v>
       </c>
       <c r="D21">
-        <v>0.60663</v>
+        <v>0.54662999999999995</v>
       </c>
       <c r="G21" s="3">
-        <v>0.59662999999999999</v>
+        <v>0.54462999999999995</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1462,10 +1621,10 @@
         <v>0.71006000000000002</v>
       </c>
       <c r="D22">
-        <v>0.60863</v>
+        <v>0.54862999999999995</v>
       </c>
       <c r="G22" s="3">
-        <v>0.59863</v>
+        <v>0.54662999999999995</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -1476,13 +1635,13 @@
         <v>0.72055999999999998</v>
       </c>
       <c r="D23">
-        <v>0.61063000000000001</v>
+        <v>0.55062999999999995</v>
       </c>
       <c r="G23" s="3">
-        <v>0.60063</v>
+        <v>0.54862999999999995</v>
       </c>
       <c r="H23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1490,10 +1649,10 @@
         <v>0.70365999999999995</v>
       </c>
       <c r="D24">
-        <v>0.61263000000000001</v>
+        <v>0.55262999999999995</v>
       </c>
       <c r="G24" s="3">
-        <v>0.60263</v>
+        <v>0.55062999999999995</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -1504,13 +1663,13 @@
         <v>0.71657000000000004</v>
       </c>
       <c r="D25">
-        <v>0.61463000000000001</v>
+        <v>0.55462999999999996</v>
       </c>
       <c r="G25" s="3">
-        <v>0.60463</v>
+        <v>0.55262999999999995</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1518,10 +1677,10 @@
         <v>0.72155000000000002</v>
       </c>
       <c r="D26">
-        <v>0.61663000000000001</v>
+        <v>0.55662999999999996</v>
       </c>
       <c r="G26" s="3">
-        <v>0.60663</v>
+        <v>0.55462999999999996</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -1532,13 +1691,13 @@
         <v>0.72038000000000002</v>
       </c>
       <c r="D27">
-        <v>0.61863000000000001</v>
+        <v>0.55862999999999996</v>
       </c>
       <c r="G27" s="3">
-        <v>0.60863</v>
+        <v>0.55662999999999996</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1546,13 +1705,13 @@
         <v>0.71552000000000004</v>
       </c>
       <c r="D28">
-        <v>0.62063000000000001</v>
+        <v>0.56062999999999996</v>
       </c>
       <c r="G28" s="3">
-        <v>0.61063000000000001</v>
+        <v>0.55862999999999996</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1560,13 +1719,13 @@
         <v>0.71348999999999996</v>
       </c>
       <c r="D29">
-        <v>0.62263000000000002</v>
+        <v>0.56262999999999996</v>
       </c>
       <c r="G29" s="3">
-        <v>0.61263000000000001</v>
+        <v>0.56062999999999996</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1574,13 +1733,13 @@
         <v>0.70067999999999997</v>
       </c>
       <c r="D30">
-        <v>0.62463000000000002</v>
+        <v>0.56462999999999997</v>
       </c>
       <c r="G30" s="3">
-        <v>0.61463000000000001</v>
+        <v>0.56262999999999996</v>
       </c>
       <c r="H30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1588,13 +1747,13 @@
         <v>0.71469000000000005</v>
       </c>
       <c r="D31">
-        <v>0.62663000000000002</v>
+        <v>0.56662999999999997</v>
       </c>
       <c r="G31" s="3">
-        <v>0.61663000000000001</v>
+        <v>0.56462999999999997</v>
       </c>
       <c r="H31" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1602,13 +1761,13 @@
         <v>0.71931</v>
       </c>
       <c r="D32">
-        <v>0.62863000000000002</v>
+        <v>0.56862999999999997</v>
       </c>
       <c r="G32" s="3">
-        <v>0.61863000000000001</v>
+        <v>0.56662999999999997</v>
       </c>
       <c r="H32" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1616,13 +1775,13 @@
         <v>0.72216000000000002</v>
       </c>
       <c r="D33">
-        <v>0.63063000000000002</v>
+        <v>0.57062999999999997</v>
       </c>
       <c r="G33" s="3">
-        <v>0.62063000000000001</v>
+        <v>0.56862999999999997</v>
       </c>
       <c r="H33" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1630,13 +1789,13 @@
         <v>0.71348999999999996</v>
       </c>
       <c r="D34">
-        <v>0.63263000000000003</v>
+        <v>0.57262999999999997</v>
       </c>
       <c r="G34" s="3">
-        <v>0.62263000000000002</v>
+        <v>0.57062999999999997</v>
       </c>
       <c r="H34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1644,13 +1803,13 @@
         <v>0.71565999999999996</v>
       </c>
       <c r="D35">
-        <v>0.63463000000000003</v>
+        <v>0.57462999999999997</v>
       </c>
       <c r="G35" s="3">
-        <v>0.62463000000000002</v>
+        <v>0.57262999999999997</v>
       </c>
       <c r="H35" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1658,13 +1817,13 @@
         <v>0.70891000000000004</v>
       </c>
       <c r="D36">
-        <v>0.63663000000000003</v>
+        <v>0.57662999999999998</v>
       </c>
       <c r="G36" s="3">
-        <v>0.62663000000000002</v>
+        <v>0.57462999999999997</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1672,13 +1831,13 @@
         <v>0.71875999999999995</v>
       </c>
       <c r="D37">
-        <v>0.63863000000000003</v>
+        <v>0.57862999999999998</v>
       </c>
       <c r="G37" s="3">
-        <v>0.62863000000000002</v>
+        <v>0.57662999999999998</v>
       </c>
       <c r="H37" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1686,13 +1845,13 @@
         <v>0.71686000000000005</v>
       </c>
       <c r="D38">
-        <v>0.64063000000000003</v>
+        <v>0.58062999999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>0.63063000000000002</v>
+        <v>0.57862999999999998</v>
       </c>
       <c r="H38" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1700,13 +1859,13 @@
         <v>0.71643000000000001</v>
       </c>
       <c r="D39">
-        <v>0.64263000000000003</v>
+        <v>0.58262999999999998</v>
       </c>
       <c r="G39" s="3">
-        <v>0.63263000000000003</v>
+        <v>0.58062999999999998</v>
       </c>
       <c r="H39" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1714,13 +1873,13 @@
         <v>0.71509999999999996</v>
       </c>
       <c r="D40">
-        <v>0.64463000000000004</v>
+        <v>0.58462999999999998</v>
       </c>
       <c r="G40" s="3">
-        <v>0.63463000000000003</v>
+        <v>0.58262999999999998</v>
       </c>
       <c r="H40" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1728,13 +1887,13 @@
         <v>0.72131999999999996</v>
       </c>
       <c r="D41">
-        <v>0.64663000000000004</v>
+        <v>0.58662999999999998</v>
       </c>
       <c r="G41" s="3">
-        <v>0.63663000000000003</v>
+        <v>0.58462999999999998</v>
       </c>
       <c r="H41" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1742,13 +1901,13 @@
         <v>0.61170000000000002</v>
       </c>
       <c r="D42">
-        <v>0.64863000000000004</v>
+        <v>0.58862999999999999</v>
       </c>
       <c r="G42" s="3">
-        <v>0.63863000000000003</v>
+        <v>0.58662999999999998</v>
       </c>
       <c r="H42" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1756,13 +1915,13 @@
         <v>0.61668999999999996</v>
       </c>
       <c r="D43">
-        <v>0.65063000000000004</v>
+        <v>0.59062999999999999</v>
       </c>
       <c r="G43" s="3">
-        <v>0.64063000000000003</v>
+        <v>0.58862999999999999</v>
       </c>
       <c r="H43" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1770,13 +1929,13 @@
         <v>0.63614999999999999</v>
       </c>
       <c r="D44">
-        <v>0.65263000000000004</v>
+        <v>0.59262999999999999</v>
       </c>
       <c r="G44" s="3">
-        <v>0.64263000000000003</v>
+        <v>0.59062999999999999</v>
       </c>
       <c r="H44" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1784,13 +1943,13 @@
         <v>0.64339999999999997</v>
       </c>
       <c r="D45">
-        <v>0.65463000000000005</v>
+        <v>0.59462999999999999</v>
       </c>
       <c r="G45" s="3">
-        <v>0.64463000000000004</v>
+        <v>0.59262999999999999</v>
       </c>
       <c r="H45" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1798,13 +1957,13 @@
         <v>0.64931000000000005</v>
       </c>
       <c r="D46">
-        <v>0.65663000000000005</v>
+        <v>0.59662999999999999</v>
       </c>
       <c r="G46" s="3">
-        <v>0.64663000000000004</v>
+        <v>0.59462999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1812,13 +1971,13 @@
         <v>0.63251000000000002</v>
       </c>
       <c r="D47">
-        <v>0.65863000000000005</v>
+        <v>0.59863</v>
       </c>
       <c r="G47" s="3">
-        <v>0.64863000000000004</v>
+        <v>0.59662999999999999</v>
       </c>
       <c r="H47" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1826,13 +1985,13 @@
         <v>0.56381000000000003</v>
       </c>
       <c r="D48">
-        <v>0.66063000000000005</v>
+        <v>0.60063</v>
       </c>
       <c r="G48" s="3">
-        <v>0.65063000000000004</v>
+        <v>0.59863</v>
       </c>
       <c r="H48" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1840,13 +1999,13 @@
         <v>0.63507999999999998</v>
       </c>
       <c r="D49">
-        <v>0.66263000000000005</v>
+        <v>0.60263</v>
       </c>
       <c r="G49" s="3">
-        <v>0.65263000000000004</v>
+        <v>0.60063</v>
       </c>
       <c r="H49" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1854,13 +2013,13 @@
         <v>0.63956000000000002</v>
       </c>
       <c r="D50">
-        <v>0.66463000000000005</v>
+        <v>0.60463</v>
       </c>
       <c r="G50" s="3">
-        <v>0.65463000000000005</v>
+        <v>0.60263</v>
       </c>
       <c r="H50" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1868,13 +2027,13 @@
         <v>0.63898999999999995</v>
       </c>
       <c r="D51">
-        <v>0.66662999999999994</v>
+        <v>0.60663</v>
       </c>
       <c r="G51" s="3">
-        <v>0.65663000000000005</v>
+        <v>0.60463</v>
       </c>
       <c r="H51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1882,13 +2041,13 @@
         <v>0.63580999999999999</v>
       </c>
       <c r="D52">
-        <v>0.66862999999999995</v>
+        <v>0.60863</v>
       </c>
       <c r="G52" s="3">
-        <v>0.65863000000000005</v>
+        <v>0.60663</v>
       </c>
       <c r="H52" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1896,13 +2055,13 @@
         <v>0.62980999999999998</v>
       </c>
       <c r="D53">
-        <v>0.67062999999999995</v>
+        <v>0.61063000000000001</v>
       </c>
       <c r="G53" s="3">
-        <v>0.66063000000000005</v>
+        <v>0.60863</v>
       </c>
       <c r="H53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1910,13 +2069,13 @@
         <v>0.63593999999999995</v>
       </c>
       <c r="D54">
-        <v>0.67262999999999995</v>
+        <v>0.61263000000000001</v>
       </c>
       <c r="G54" s="3">
-        <v>0.66263000000000005</v>
+        <v>0.61063000000000001</v>
       </c>
       <c r="H54" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1924,13 +2083,13 @@
         <v>0.65676999999999996</v>
       </c>
       <c r="D55">
-        <v>0.67462999999999995</v>
+        <v>0.61463000000000001</v>
       </c>
       <c r="G55" s="3">
-        <v>0.66463000000000005</v>
+        <v>0.61263000000000001</v>
       </c>
       <c r="H55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1938,13 +2097,13 @@
         <v>0.64527000000000001</v>
       </c>
       <c r="D56">
-        <v>0.67662999999999995</v>
+        <v>0.61663000000000001</v>
       </c>
       <c r="G56" s="3">
-        <v>0.66662999999999994</v>
+        <v>0.61463000000000001</v>
       </c>
       <c r="H56" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,13 +2111,13 @@
         <v>0.65112000000000003</v>
       </c>
       <c r="D57">
-        <v>0.67862999999999996</v>
+        <v>0.61863000000000001</v>
       </c>
       <c r="G57" s="3">
-        <v>0.66862999999999995</v>
+        <v>0.61663000000000001</v>
       </c>
       <c r="H57" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1966,13 +2125,13 @@
         <v>0.63019999999999998</v>
       </c>
       <c r="D58">
-        <v>0.68062999999999996</v>
+        <v>0.62063000000000001</v>
       </c>
       <c r="G58" s="3">
-        <v>0.67062999999999995</v>
+        <v>0.61863000000000001</v>
       </c>
       <c r="H58" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1980,13 +2139,13 @@
         <v>0.62105999999999995</v>
       </c>
       <c r="D59">
-        <v>0.68262999999999996</v>
+        <v>0.62263000000000002</v>
       </c>
       <c r="G59" s="3">
-        <v>0.67262999999999995</v>
+        <v>0.62063000000000001</v>
       </c>
       <c r="H59" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1994,10 +2153,10 @@
         <v>0.63063000000000002</v>
       </c>
       <c r="D60">
-        <v>0.68462999999999996</v>
+        <v>0.62463000000000002</v>
       </c>
       <c r="G60" s="3">
-        <v>0.67462999999999995</v>
+        <v>0.62263000000000002</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
@@ -2008,13 +2167,13 @@
         <v>0.59209000000000001</v>
       </c>
       <c r="D61">
-        <v>0.68662999999999996</v>
+        <v>0.62663000000000002</v>
       </c>
       <c r="G61" s="3">
-        <v>0.67662999999999995</v>
+        <v>0.62463000000000002</v>
       </c>
       <c r="H61" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2022,13 +2181,13 @@
         <v>0.64646999999999999</v>
       </c>
       <c r="D62">
-        <v>0.68862999999999996</v>
+        <v>0.62863000000000002</v>
       </c>
       <c r="G62" s="3">
-        <v>0.67862999999999996</v>
+        <v>0.62663000000000002</v>
       </c>
       <c r="H62" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2036,13 +2195,13 @@
         <v>0.6361</v>
       </c>
       <c r="D63">
-        <v>0.69062999999999997</v>
+        <v>0.63063000000000002</v>
       </c>
       <c r="G63" s="3">
-        <v>0.68062999999999996</v>
+        <v>0.62863000000000002</v>
       </c>
       <c r="H63" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2050,13 +2209,13 @@
         <v>0.63490999999999997</v>
       </c>
       <c r="D64">
-        <v>0.69262999999999997</v>
+        <v>0.63263000000000003</v>
       </c>
       <c r="G64" s="3">
-        <v>0.68262999999999996</v>
+        <v>0.63063000000000002</v>
       </c>
       <c r="H64" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,13 +2223,13 @@
         <v>0.65434000000000003</v>
       </c>
       <c r="D65">
-        <v>0.69462999999999997</v>
+        <v>0.63463000000000003</v>
       </c>
       <c r="G65" s="3">
-        <v>0.68462999999999996</v>
+        <v>0.63263000000000003</v>
       </c>
       <c r="H65" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2078,13 +2237,13 @@
         <v>0.63788999999999996</v>
       </c>
       <c r="D66">
-        <v>0.69662999999999997</v>
+        <v>0.63663000000000003</v>
       </c>
       <c r="G66" s="3">
-        <v>0.68662999999999996</v>
+        <v>0.63463000000000003</v>
       </c>
       <c r="H66" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2092,13 +2251,13 @@
         <v>0.67159999999999997</v>
       </c>
       <c r="D67">
-        <v>0.69862999999999997</v>
+        <v>0.63863000000000003</v>
       </c>
       <c r="G67" s="3">
-        <v>0.68862999999999996</v>
+        <v>0.63663000000000003</v>
       </c>
       <c r="H67" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2106,13 +2265,13 @@
         <v>0.62761999999999996</v>
       </c>
       <c r="D68">
-        <v>0.70062999999999998</v>
+        <v>0.64063000000000003</v>
       </c>
       <c r="G68" s="3">
-        <v>0.69062999999999997</v>
+        <v>0.63863000000000003</v>
       </c>
       <c r="H68" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2120,13 +2279,13 @@
         <v>0.63704000000000005</v>
       </c>
       <c r="D69">
-        <v>0.70262999999999998</v>
+        <v>0.64263000000000003</v>
       </c>
       <c r="G69" s="3">
-        <v>0.69262999999999997</v>
+        <v>0.64063000000000003</v>
       </c>
       <c r="H69" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2134,13 +2293,13 @@
         <v>0.64105999999999996</v>
       </c>
       <c r="D70">
-        <v>0.70462999999999998</v>
+        <v>0.64463000000000004</v>
       </c>
       <c r="G70" s="3">
-        <v>0.69462999999999997</v>
+        <v>0.64263000000000003</v>
       </c>
       <c r="H70" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2148,13 +2307,13 @@
         <v>0.62827999999999995</v>
       </c>
       <c r="D71">
-        <v>0.70662999999999998</v>
+        <v>0.64663000000000004</v>
       </c>
       <c r="G71" s="3">
-        <v>0.69662999999999997</v>
+        <v>0.64463000000000004</v>
       </c>
       <c r="H71" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2162,13 +2321,13 @@
         <v>0.63277000000000005</v>
       </c>
       <c r="D72">
-        <v>0.70862999999999998</v>
+        <v>0.64863000000000004</v>
       </c>
       <c r="G72" s="3">
-        <v>0.69862999999999997</v>
+        <v>0.64663000000000004</v>
       </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2176,13 +2335,13 @@
         <v>0.64076999999999995</v>
       </c>
       <c r="D73">
-        <v>0.71062999999999998</v>
+        <v>0.65063000000000004</v>
       </c>
       <c r="G73" s="3">
-        <v>0.70062999999999998</v>
+        <v>0.64863000000000004</v>
       </c>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2190,13 +2349,13 @@
         <v>0.63195999999999997</v>
       </c>
       <c r="D74">
-        <v>0.71262999999999999</v>
+        <v>0.65263000000000004</v>
       </c>
       <c r="G74" s="3">
-        <v>0.70262999999999998</v>
+        <v>0.65063000000000004</v>
       </c>
       <c r="H74" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2204,13 +2363,13 @@
         <v>0.64107000000000003</v>
       </c>
       <c r="D75">
-        <v>0.71462999999999999</v>
+        <v>0.65463000000000005</v>
       </c>
       <c r="G75" s="3">
-        <v>0.70462999999999998</v>
+        <v>0.65263000000000004</v>
       </c>
       <c r="H75" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2218,13 +2377,13 @@
         <v>0.61541999999999997</v>
       </c>
       <c r="D76">
-        <v>0.71662999999999999</v>
+        <v>0.65663000000000005</v>
       </c>
       <c r="G76" s="3">
-        <v>0.70662999999999998</v>
+        <v>0.65463000000000005</v>
       </c>
       <c r="H76" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2232,13 +2391,13 @@
         <v>0.64134999999999998</v>
       </c>
       <c r="D77">
-        <v>0.71862999999999999</v>
+        <v>0.65863000000000005</v>
       </c>
       <c r="G77" s="3">
-        <v>0.70862999999999998</v>
+        <v>0.65663000000000005</v>
       </c>
       <c r="H77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2246,13 +2405,13 @@
         <v>0.64007999999999998</v>
       </c>
       <c r="D78">
-        <v>0.72062999999999999</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="G78" s="3">
-        <v>0.71062999999999998</v>
+        <v>0.65863000000000005</v>
       </c>
       <c r="H78" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2260,13 +2419,13 @@
         <v>0.61761999999999995</v>
       </c>
       <c r="D79">
-        <v>0.72262999999999999</v>
+        <v>0.66263000000000005</v>
       </c>
       <c r="G79" s="3">
-        <v>0.71262999999999999</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="H79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2274,13 +2433,13 @@
         <v>0.64637999999999995</v>
       </c>
       <c r="D80">
-        <v>0.72463</v>
+        <v>0.66463000000000005</v>
       </c>
       <c r="G80" s="3">
-        <v>0.71462999999999999</v>
+        <v>0.66263000000000005</v>
       </c>
       <c r="H80" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2288,13 +2447,13 @@
         <v>0.64798</v>
       </c>
       <c r="D81">
-        <v>0.72663</v>
+        <v>0.66662999999999994</v>
       </c>
       <c r="G81" s="3">
-        <v>0.71662999999999999</v>
+        <v>0.66463000000000005</v>
       </c>
       <c r="H81" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2302,10 +2461,10 @@
         <v>0.63383999999999996</v>
       </c>
       <c r="D82">
-        <v>0.72863</v>
+        <v>0.66862999999999995</v>
       </c>
       <c r="G82" s="3">
-        <v>0.71862999999999999</v>
+        <v>0.66662999999999994</v>
       </c>
       <c r="H82" s="4">
         <v>1</v>
@@ -2316,13 +2475,13 @@
         <v>0.63698999999999995</v>
       </c>
       <c r="D83">
-        <v>0.73063</v>
+        <v>0.67062999999999995</v>
       </c>
       <c r="G83" s="3">
-        <v>0.72062999999999999</v>
+        <v>0.66862999999999995</v>
       </c>
       <c r="H83" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2330,13 +2489,13 @@
         <v>0.68101999999999996</v>
       </c>
       <c r="D84">
-        <v>0.73263</v>
+        <v>0.67262999999999995</v>
       </c>
       <c r="G84" s="3">
-        <v>0.72262999999999999</v>
+        <v>0.67062999999999995</v>
       </c>
       <c r="H84" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2344,13 +2503,13 @@
         <v>0.64610999999999996</v>
       </c>
       <c r="D85">
-        <v>0.73463000000000001</v>
+        <v>0.67462999999999995</v>
       </c>
       <c r="G85" s="3">
-        <v>0.72463</v>
+        <v>0.67262999999999995</v>
       </c>
       <c r="H85" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2358,13 +2517,13 @@
         <v>0.66898999999999997</v>
       </c>
       <c r="D86">
-        <v>0.73663000000000001</v>
+        <v>0.67662999999999995</v>
       </c>
       <c r="G86" s="3">
-        <v>0.72663</v>
+        <v>0.67462999999999995</v>
       </c>
       <c r="H86" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2372,10 +2531,10 @@
         <v>0.63927</v>
       </c>
       <c r="D87">
-        <v>0.73863000000000001</v>
+        <v>0.67862999999999996</v>
       </c>
       <c r="G87" s="3">
-        <v>0.72863</v>
+        <v>0.67662999999999995</v>
       </c>
       <c r="H87" s="4">
         <v>0</v>
@@ -2386,10 +2545,10 @@
         <v>0.64437</v>
       </c>
       <c r="D88">
-        <v>0.74063000000000001</v>
+        <v>0.68062999999999996</v>
       </c>
       <c r="G88" s="3">
-        <v>0.73063</v>
+        <v>0.67862999999999996</v>
       </c>
       <c r="H88" s="4">
         <v>0</v>
@@ -2399,30 +2558,39 @@
       <c r="A89" s="1">
         <v>0.64139999999999997</v>
       </c>
+      <c r="D89">
+        <v>0.68262999999999996</v>
+      </c>
       <c r="G89" s="3">
-        <v>0.73263</v>
+        <v>0.68062999999999996</v>
       </c>
       <c r="H89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>0.62561</v>
       </c>
+      <c r="D90">
+        <v>0.68462999999999996</v>
+      </c>
       <c r="G90" s="3">
-        <v>0.73463000000000001</v>
+        <v>0.68262999999999996</v>
       </c>
       <c r="H90" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>0.66317999999999999</v>
       </c>
+      <c r="D91">
+        <v>0.68662999999999996</v>
+      </c>
       <c r="G91" s="3">
-        <v>0.73663000000000001</v>
+        <v>0.68462999999999996</v>
       </c>
       <c r="H91" s="4">
         <v>0</v>
@@ -2432,8 +2600,11 @@
       <c r="A92" s="1">
         <v>0.65063000000000004</v>
       </c>
+      <c r="D92">
+        <v>0.68862999999999996</v>
+      </c>
       <c r="G92" s="3">
-        <v>0.73863000000000001</v>
+        <v>0.68662999999999996</v>
       </c>
       <c r="H92" s="4">
         <v>0</v>
@@ -2443,21 +2614,27 @@
       <c r="A93" s="1">
         <v>0.66044000000000003</v>
       </c>
+      <c r="D93">
+        <v>0.69062999999999997</v>
+      </c>
       <c r="G93" s="3">
-        <v>0.74063000000000001</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="H93" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>0.64861999999999997</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="5">
+      <c r="D94">
+        <v>0.69262999999999997</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.69062999999999997</v>
+      </c>
+      <c r="H94" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2465,168 +2642,351 @@
       <c r="A95" s="1">
         <v>0.65029000000000003</v>
       </c>
+      <c r="D95">
+        <v>0.69462999999999997</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.69262999999999997</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>0.66693000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="D96">
+        <v>0.69662999999999997</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.69462999999999997</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="D97">
+        <v>0.69862999999999997</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.69662999999999997</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>0.64725999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="D98">
+        <v>0.70062999999999998</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.69862999999999997</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>0.65278000000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="D99">
+        <v>0.70262999999999998</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.70062999999999998</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>0.68037999999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="D100">
+        <v>0.70462999999999998</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.70262999999999998</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>0.65752999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="D101">
+        <v>0.70662999999999998</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.70462999999999998</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>0.65758000000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="D102">
+        <v>0.70862999999999998</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.70662999999999998</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>0.64493999999999996</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="D103">
+        <v>0.71062999999999998</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.70862999999999998</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>0.64717000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="D104">
+        <v>0.71262999999999999</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.71062999999999998</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>0.67271999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="D105">
+        <v>0.71462999999999999</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.71262999999999999</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>0.66252</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="D106">
+        <v>0.71662999999999999</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.71462999999999999</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>0.64341000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="D107">
+        <v>0.71862999999999999</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.71662999999999999</v>
+      </c>
+      <c r="H107" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>0.65241000000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="D108">
+        <v>0.72062999999999999</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.71862999999999999</v>
+      </c>
+      <c r="H108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>0.62943000000000005</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="D109">
+        <v>0.72262999999999999</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.72062999999999999</v>
+      </c>
+      <c r="H109" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>0.63473999999999997</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="D110">
+        <v>0.72463</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.72262999999999999</v>
+      </c>
+      <c r="H110" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>0.63353000000000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="D111">
+        <v>0.72663</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.72463</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>0.63632</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="D112">
+        <v>0.72863</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.72663</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="D113">
+        <v>0.73063</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.72863</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>0.63017999999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="G114" s="3">
+        <v>0.73063</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1">
       <c r="A115" s="1">
         <v>0.63341999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="G115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>0.62690999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>0.63443000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>0.63895999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>0.63966000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>0.61689000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>0.62719000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>0.65353000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>0.66305999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>0.64326000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>0.64993000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>0.65517999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>0.64709000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>0.61221999999999999</v>
       </c>
@@ -2997,8 +3357,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:G93">
-    <sortCondition ref="G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G114">
+    <sortCondition ref="G3"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
